--- a/License/third-party license/license list.xlsx
+++ b/License/third-party license/license list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
   <si>
     <t>Poroject name</t>
   </si>
@@ -137,6 +137,60 @@
   </si>
   <si>
     <t>https://modrinth.com/mod/bountifulharvest</t>
+  </si>
+  <si>
+    <t>Skyblock Burgeria</t>
+  </si>
+  <si>
+    <t>xXStrayXx</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>kubejs\server_scripts\shop_buger</t>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria</t>
+  </si>
+  <si>
+    <t>kubejs\startup_scripts\shop_buger</t>
+  </si>
+  <si>
+    <t>kubejs\client_scripts\shop_buger</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>kubejs\assets\kubejs\textures\painter</t>
+  </si>
+  <si>
+    <t>item map</t>
+  </si>
+  <si>
+    <t>kubejs\assets\kubejs\textures\item\skyblockburgeria</t>
+  </si>
+  <si>
+    <t>block map</t>
+  </si>
+  <si>
+    <t>kubejs\assets\kubejs\textures\block\skyblockburgeria</t>
+  </si>
+  <si>
+    <t>TerraFirmaCraft: The Next Generation</t>
+  </si>
+  <si>
+    <t>Dries007</t>
+  </si>
+  <si>
+    <t>EUPLv1.2</t>
+  </si>
+  <si>
+    <t>kubejs\assets\kubejs\textures\item\terrafirmacraft</t>
+  </si>
+  <si>
+    <t>https://github.com/TerraFirmaCraft/TerraFirmaCraft</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -187,16 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -658,7 +713,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,17 +843,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1123,7 +1181,7 @@
     <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="26.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="44.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="31.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1345,6 +1403,146 @@
       </c>
       <c r="F11" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1357,6 +1555,13 @@
     <hyperlink ref="F4" r:id="rId4" display="GregTechCE/GregTech: GregTech rewrite for modern versions of Minecraft"/>
     <hyperlink ref="F2" r:id="rId5" display="https://github.com/ochotonida/some-assembly-required"/>
     <hyperlink ref="F11" r:id="rId6" display="https://modrinth.com/mod/bountifulharvest"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F13" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F14" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F15" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F16" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F17" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F18" r:id="rId8" display="https://github.com/TerraFirmaCraft/TerraFirmaCraft"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1367,40 +1572,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="37.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="10.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="48.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="56.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1411,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1431,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -1451,7 +1656,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -1471,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1491,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1511,7 +1716,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -1531,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -1551,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
@@ -1571,7 +1776,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -1597,10 +1802,150 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1613,6 +1958,13 @@
     <hyperlink ref="F4" r:id="rId4" display="GregTechCE/GregTech: GregTech rewrite for modern versions of Minecraft"/>
     <hyperlink ref="F2" r:id="rId5" display="https://github.com/ochotonida/some-assembly-required"/>
     <hyperlink ref="F11" r:id="rId6" display="https://modrinth.com/mod/bountifulharvest"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F13" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F14" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F15" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F16" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F17" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F18" r:id="rId8" display="https://github.com/TerraFirmaCraft/TerraFirmaCraft"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/License/third-party license/license list.xlsx
+++ b/License/third-party license/license list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
   <si>
     <t>Poroject name</t>
   </si>
@@ -67,63 +67,6 @@
     <t>https://github.com/ochotonida/some-assembly-required</t>
   </si>
   <si>
-    <t>GregTech CE: Unofficial</t>
-  </si>
-  <si>
-    <t>GregTechCEu</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>LGPLv3.0</t>
-  </si>
-  <si>
-    <t>kubejs\assets\kubejs\textures\item\xyn</t>
-  </si>
-  <si>
-    <t>GregTechCEu/GregTech: GregTech CE 1.12 fork continuing progression and development</t>
-  </si>
-  <si>
-    <t>GregTech Community Edition</t>
-  </si>
-  <si>
-    <t>Archengius</t>
-  </si>
-  <si>
-    <t>kubejs\assets\kubejs\textures\item\avaritia</t>
-  </si>
-  <si>
-    <t>GregTechCE/GregTech: GregTech rewrite for modern versions of Minecraft</t>
-  </si>
-  <si>
-    <t>GregTechCEu Modern</t>
-  </si>
-  <si>
-    <t>kubejs\assets\kubejs\textures\item\gt</t>
-  </si>
-  <si>
-    <t>https://github.com/GregTechCEu/GregTech-Modern</t>
-  </si>
-  <si>
-    <t>GregTech Food Option</t>
-  </si>
-  <si>
-    <t>kubejs\assets\kubejs\textures\item\gtfo</t>
-  </si>
-  <si>
-    <t>bruberu/GregTechFoodOption: Source code for the GTFO mod.</t>
-  </si>
-  <si>
-    <t>HBM's Nuclear Tech Mod</t>
-  </si>
-  <si>
-    <t>HBMTheBobcat</t>
-  </si>
-  <si>
-    <t>HbmMods/Hbm-s-Nuclear-Tech-GIT: A flaming wreck of a minecraft mod about nuclear technology that is somehow still in development.</t>
-  </si>
-  <si>
     <t>Bountiful Harvest</t>
   </si>
   <si>
@@ -191,6 +134,33 @@
   </si>
   <si>
     <t>https://github.com/TerraFirmaCraft/TerraFirmaCraft</t>
+  </si>
+  <si>
+    <t>Zederrian-Technology-GTCEu</t>
+  </si>
+  <si>
+    <t>NovaStar</t>
+  </si>
+  <si>
+    <t>CC BY-CN4.0</t>
+  </si>
+  <si>
+    <t>kubejs\assets\kubejs\textures\item</t>
+  </si>
+  <si>
+    <t>https://github.com/CosmicNovaStar/Zederrian-Technology-GTCEu</t>
+  </si>
+  <si>
+    <t>GregTech</t>
+  </si>
+  <si>
+    <t>GregoriusT</t>
+  </si>
+  <si>
+    <t>CC0</t>
+  </si>
+  <si>
+    <t>https://gregtech.overminddl1.com/downloads/gregtech_1.7.2/index.html</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -1170,17 +1140,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="38.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="26.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="13.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="31.5555555555556" customWidth="1"/>
   </cols>
@@ -1226,342 +1197,218 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://github.com/GregTechCEu/GregTech-Modern"/>
-    <hyperlink ref="F5" r:id="rId1" display="https://github.com/GregTechCEu/GregTech-Modern"/>
-    <hyperlink ref="F6" r:id="rId2" display="bruberu/GregTechFoodOption: Source code for the GTFO mod."/>
-    <hyperlink ref="F3" r:id="rId3" display="GregTechCEu/GregTech: GregTech CE 1.12 fork continuing progression and development"/>
-    <hyperlink ref="F10" r:id="rId4" display="GregTechCE/GregTech: GregTech rewrite for modern versions of Minecraft"/>
-    <hyperlink ref="F4" r:id="rId4" display="GregTechCE/GregTech: GregTech rewrite for modern versions of Minecraft"/>
-    <hyperlink ref="F2" r:id="rId5" display="https://github.com/ochotonida/some-assembly-required"/>
-    <hyperlink ref="F11" r:id="rId6" display="https://modrinth.com/mod/bountifulharvest"/>
-    <hyperlink ref="F12" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F13" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F14" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F15" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F16" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F17" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F18" r:id="rId8" display="https://github.com/TerraFirmaCraft/TerraFirmaCraft"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://github.com/ochotonida/some-assembly-required"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://modrinth.com/mod/bountifulharvest"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F10" r:id="rId4" display="https://github.com/TerraFirmaCraft/TerraFirmaCraft"/>
+    <hyperlink ref="F11" r:id="rId5" display="https://github.com/CosmicNovaStar/Zederrian-Technology-GTCEu"/>
+    <hyperlink ref="F12" r:id="rId6" display="https://gregtech.overminddl1.com/downloads/gregtech_1.7.2/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1572,10 +1419,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1590,22 +1437,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1616,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -1629,342 +1476,218 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://github.com/GregTechCEu/GregTech-Modern"/>
-    <hyperlink ref="F5" r:id="rId1" display="https://github.com/GregTechCEu/GregTech-Modern"/>
-    <hyperlink ref="F6" r:id="rId2" display="bruberu/GregTechFoodOption: Source code for the GTFO mod."/>
-    <hyperlink ref="F3" r:id="rId3" display="GregTechCEu/GregTech: GregTech CE 1.12 fork continuing progression and development"/>
-    <hyperlink ref="F10" r:id="rId4" display="GregTechCE/GregTech: GregTech rewrite for modern versions of Minecraft"/>
-    <hyperlink ref="F4" r:id="rId4" display="GregTechCE/GregTech: GregTech rewrite for modern versions of Minecraft"/>
-    <hyperlink ref="F2" r:id="rId5" display="https://github.com/ochotonida/some-assembly-required"/>
-    <hyperlink ref="F11" r:id="rId6" display="https://modrinth.com/mod/bountifulharvest"/>
-    <hyperlink ref="F12" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F13" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F14" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F15" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F16" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F17" r:id="rId7" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
-    <hyperlink ref="F18" r:id="rId8" display="https://github.com/TerraFirmaCraft/TerraFirmaCraft"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://github.com/ochotonida/some-assembly-required"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://modrinth.com/mod/bountifulharvest"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://www.curseforge.com/minecraft/modpacks/skyblock-burgeria"/>
+    <hyperlink ref="F10" r:id="rId4" display="https://github.com/TerraFirmaCraft/TerraFirmaCraft"/>
+    <hyperlink ref="F11" r:id="rId5" display="https://github.com/CosmicNovaStar/Zederrian-Technology-GTCEu"/>
+    <hyperlink ref="F12" r:id="rId6" display="https://gregtech.overminddl1.com/downloads/gregtech_1.7.2/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
